--- a/Image/foodDo N-Work Technology.xlsx
+++ b/Image/foodDo N-Work Technology.xlsx
@@ -14,69 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
-  <si>
-    <t>Category Name</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>ItemMode</t>
-  </si>
-  <si>
-    <t>Discription</t>
-  </si>
-  <si>
-    <t>Cost Price</t>
-  </si>
-  <si>
-    <t>Tax %</t>
-  </si>
-  <si>
-    <t>Biryani2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>QrCode</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Screen5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Screen3</t>
+  </si>
+  <si>
+    <t>Sheat 3</t>
+  </si>
+  <si>
+    <t>Sheet cir</t>
+  </si>
+  <si>
+    <t>Row2</t>
+  </si>
+  <si>
+    <t>table2</t>
+  </si>
+  <si>
+    <t>va34</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>VEG</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>Daal5</t>
   </si>
   <si>
     <t>sdfdsaf</t>
   </si>
   <si>
-    <t>VEG</t>
+    <t>BIRYANI2</t>
   </si>
   <si>
     <t>sdfsdg</t>
   </si>
   <si>
+    <t>Veg Biryani</t>
+  </si>
+  <si>
+    <t>Dal Bhat kendra 5 Rs</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>testt7</t>
+  </si>
+  <si>
+    <t>Kamtu 2</t>
+  </si>
+  <si>
+    <t>kamtu category</t>
+  </si>
+  <si>
     <t>Basmati Rice</t>
   </si>
   <si>
     <t>dfgfd</t>
-  </si>
-  <si>
-    <t>Daal5</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Dal Bhat kendra 5 Rs</t>
-  </si>
-  <si>
-    <t>testt7</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>Veg Biryani</t>
-  </si>
-  <si>
-    <t>Kamtu 2</t>
-  </si>
-  <si>
-    <t>kamtu category</t>
   </si>
 </sst>
 </file>
@@ -114,11 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,23 +433,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,156 +460,193 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>1222</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>396</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>4444</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>500</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>500</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>300</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <v>200</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2">
-        <v>200</v>
-      </c>
-      <c r="F9" s="2">
-        <v>10</v>
+      <c r="D17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
